--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7793e36aa8af7b21/Documents/UiPath/Invoice Processing Automation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10A50AB5-2B41-400A-84FA-FB0F3AADBD75}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B877EAA-4959-4AF6-94EF-41C0181550F1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Transaction Successful.</t>
   </si>
   <si>
-    <t>LogMessage_BusinessRuleException</t>
-  </si>
-  <si>
-    <t>Business rule exception.</t>
-  </si>
-  <si>
     <t>LogMessage_ApplicationException</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -166,6 +157,45 @@
   </si>
   <si>
     <t>C:\Users\rakes\OneDrive\Documents\UiPath\Invoice Processing Automation\Data\Input\Sample Incoice</t>
+  </si>
+  <si>
+    <t>C:\Users\rakes\OneDrive\Documents\UiPath\Invoice Processing Automation\Exceptions files</t>
+  </si>
+  <si>
+    <t>C:\Users\rakes\OneDrive\Documents\UiPath\Invoice Processing Automation\Data\Output\OutputCSV</t>
+  </si>
+  <si>
+    <t>OutputCSVpath</t>
+  </si>
+  <si>
+    <t>ExceptionfilesPath</t>
+  </si>
+  <si>
+    <t>ThresholdAmount</t>
+  </si>
+  <si>
+    <t>Shared/jio</t>
+  </si>
+  <si>
+    <t>LogMessage_BusinessRuleException1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Given PDF data validation is failed </t>
+  </si>
+  <si>
+    <t>Invoice Processing Automation</t>
+  </si>
+  <si>
+    <t>MailSubject</t>
+  </si>
+  <si>
+    <t>Daily Report</t>
+  </si>
+  <si>
+    <t>ToMail</t>
+  </si>
+  <si>
+    <t>rakeshkate413@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -217,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -227,6 +257,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,6 +273,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -591,39 +626,55 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1623,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1679,18 +1730,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1714,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1736,92 +1787,113 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
+      <c r="C17" t="s">
         <v>36</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+    <row r="19" spans="1:3" ht="28.8">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>9000</v>
+      </c>
+    </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2785,6 +2857,8 @@
     <row r="986" ht="14.25" customHeight="1"/>
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2815,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
